--- a/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$30</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="178">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:56:13+00:00</t>
+    <t>2024-10-01T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -360,7 +360,7 @@
     <t>Parameters.parameter</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -532,50 +532,6 @@
   </si>
   <si>
     <t>Parameters.parameter:messageId.part</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime</t>
-  </si>
-  <si>
-    <t>messageDateTime</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.id</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.extension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.modifierExtension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.name</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.value[x]:valueDateTime</t>
-  </si>
-  <si>
-    <t>valueDateTime</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.resource</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.part</t>
   </si>
   <si>
     <t>Parameters.parameter:eventType</t>
@@ -930,7 +886,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -939,9 +895,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.3203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.64453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.20703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3907,7 +3863,7 @@
         <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>74</v>
@@ -3949,26 +3905,26 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>143</v>
@@ -3997,23 +3953,21 @@
         <v>176</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>74</v>
@@ -4022,15 +3976,17 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4079,7 +4035,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4091,7 +4047,7 @@
         <v>147</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4102,10 +4058,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4128,16 +4084,16 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4187,19 +4143,19 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4208,974 +4164,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y37" s="2"/>
-      <c r="Z37" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL39">
+  <autoFilter ref="A1:AL30">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5185,7 +4175,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T20:52:52+00:00</t>
+    <t>2024-10-10T23:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T23:13:09+00:00</t>
+    <t>2024-10-11T20:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:59:30+00:00</t>
+    <t>2024-10-11T21:12:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T21:12:40+00:00</t>
+    <t>2024-10-11T22:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:07:31+00:00</t>
+    <t>2024-10-11T22:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T18:40:48+00:00</t>
+    <t>2025-05-29T22:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T22:30:32+00:00</t>
+    <t>2025-08-19T23:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T23:36:05+00:00</t>
+    <t>2025-08-27T22:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
